--- a/data/trans_dic/P54_A_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>88,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>81,27%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,14%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>84,63%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>88,48%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,01; 41,08</t>
+          <t>11,71; 61,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,34; 91,7</t>
+          <t>75,73; 95,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,25; 88,65</t>
+          <t>78,52; 97,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,71; 33,06</t>
+          <t>17,69; 44,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>72,43; 89,9</t>
+          <t>79,92; 96,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>82,47; 94,33</t>
+          <t>72,44; 93,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,88; 32,26</t>
+          <t>19,05; 47,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>78,03; 89,47</t>
+          <t>80,82; 94,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,72; 90,19</t>
+          <t>80,43; 94,54</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,4%</t>
+          <t>69,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,07%</t>
+          <t>71,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>17,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,85%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>77,59%</t>
+          <t>78,25%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 27,09</t>
+          <t>12,77; 33,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,49; 77,13</t>
+          <t>61,14; 77,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,51; 77,81</t>
+          <t>63,75; 78,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,08; 29,39</t>
+          <t>12,09; 23,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,38; 87,16</t>
+          <t>80,4; 90,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>78,79; 87,21</t>
+          <t>79,59; 89,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 25,06</t>
+          <t>14,13; 26,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,28; 80,78</t>
+          <t>72,79; 82,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>73,8; 81,23</t>
+          <t>73,55; 83,06</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>57,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>61,61%</t>
+          <t>58,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,61%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>63,67%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 9,47</t>
+          <t>1,56; 9,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,98; 65,72</t>
+          <t>47,66; 67,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50,93; 65,39</t>
+          <t>47,04; 66,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 14,0</t>
+          <t>5,06; 15,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>55,58; 67,84</t>
+          <t>51,28; 67,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,47; 75,09</t>
+          <t>62,03; 76,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,96</t>
+          <t>4,28; 11,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,85; 64,52</t>
+          <t>52,42; 64,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,92; 68,7</t>
+          <t>57,48; 68,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>69,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,34; 19,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>65,3; 73,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,32; 73,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,61; 21,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,1; 78,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,84; 82,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,9; 75,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,41; 76,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15,67%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67,82%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>69,04%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>75,2%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>78,38%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>71,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>73,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10,64; 24,29</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>61,43; 73,45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63,62; 74,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 19,85</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>70,3; 79,28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73,78; 82,09</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 20,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68,06; 75,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>70,4; 77,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir una crisis de abastecimiento o ya le ha ocurrido (tasa de respuesta: 98,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31177</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>113712</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>94698</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>31380</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>128550</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97458</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>62557</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>242261</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>192156</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11552; 60615</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>97606; 123597</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>81293; 101255</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18748; 47239</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>113867; 137273</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>82321; 106390</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38977; 97291</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>219322; 255990</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>174674; 205313</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>72984</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>293948</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>266974</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64092</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>388956</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>317132</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>137077</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>682904</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>584107</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>45891; 120433</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>259482; 328151</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>237339; 293208</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>45563; 87829</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>362894; 409802</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>297811; 336345</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>104034; 196127</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>637473; 724308</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>549014; 619977</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11796</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>191766</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>160039</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33351</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>251255</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>236247</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>45147</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>443022</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>396286</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4402; 26675</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>157535; 221965</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>131621; 187120</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18103; 55716</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>219696; 287232</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>212513; 260709</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27392; 73209</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>397833; 488063</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>357787; 427961</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>115957</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>599426</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>521711</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>128824</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>768761</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>650837</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>244781</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1368186</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1172549</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>78686; 179730</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>542919; 649183</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>480732; 566582</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>98432; 166894</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>718638; 810473</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>612675; 681626</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>195553; 319039</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1297328; 1431823</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1116601; 1223809</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>